--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>Field</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhakIhv8284@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaJZkO</t>
-  </si>
-  <si>
-    <t>automationlpne</t>
+    <t>prabharFOj3041@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhanIKP</t>
+  </si>
+  <si>
+    <t>automationqwzf</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -136,13 +136,13 @@
     <t>Writedata2</t>
   </si>
   <si>
-    <t>prabhagcFH1054@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaQGzq</t>
-  </si>
-  <si>
-    <t>automationotzx</t>
+    <t>prabhaUCmP4821@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhapAge</t>
+  </si>
+  <si>
+    <t>automationrbuh</t>
   </si>
   <si>
     <t>Testdata3</t>
@@ -154,46 +154,49 @@
     <t>Writedata3</t>
   </si>
   <si>
-    <t>prabhavoqp7045@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaYaFF</t>
-  </si>
-  <si>
-    <t>automationpimc</t>
+    <t>prabhajiEl1713@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhazOkC</t>
+  </si>
+  <si>
+    <t>automationdqup</t>
   </si>
   <si>
     <t>Testdata4</t>
   </si>
   <si>
+    <t>Chronic Disease</t>
+  </si>
+  <si>
     <t>Writedata4</t>
   </si>
   <si>
-    <t>prabhanNgu6681@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaKXfL</t>
-  </si>
-  <si>
-    <t>automationsmka</t>
+    <t>prabhaOGbu1814@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabhangas</t>
+  </si>
+  <si>
+    <t>automationzowz</t>
   </si>
   <si>
     <t>Testdata5</t>
   </si>
   <si>
-    <t>Chronic Disease</t>
+    <t>Elder Care</t>
   </si>
   <si>
     <t>Writedata5</t>
   </si>
   <si>
-    <t>prabhaPvLT3978@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaFhnm</t>
-  </si>
-  <si>
-    <t>automationtktf</t>
+    <t>prabhaIAwv2275@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaCvob</t>
+  </si>
+  <si>
+    <t>automationaqtf</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -895,7 +898,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
@@ -937,26 +940,26 @@
         <v>31</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -970,7 +973,7 @@
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -1015,26 +1018,26 @@
         <v>31</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="5" name="TC_01" state="visible" r:id="rId4"/>
+    <sheet name="TC_01" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -205,34 +205,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -244,13 +244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +573,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -603,7 +603,7 @@
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -709,7 +709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -787,7 +787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -865,7 +865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -943,7 +943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1083,6 +1083,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TC_01" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Field</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabharFOj3041@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhanIKP</t>
-  </si>
-  <si>
-    <t>automationqwzf</t>
+    <t>prabhaQwZg2980@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaWNTN</t>
+  </si>
+  <si>
+    <t>automationhgar</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -136,13 +136,13 @@
     <t>Writedata2</t>
   </si>
   <si>
-    <t>prabhaUCmP4821@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhapAge</t>
-  </si>
-  <si>
-    <t>automationrbuh</t>
+    <t>prabhauzWx3907@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhabxtY</t>
+  </si>
+  <si>
+    <t>automationtdhs</t>
   </si>
   <si>
     <t>Testdata3</t>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>automationaqtf</t>
+  </si>
+  <si>
+    <t>MailPrefix</t>
+  </si>
+  <si>
+    <t>prabha</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,23 +593,23 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,47 +625,50 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -675,41 +684,44 @@
       <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -717,17 +729,17 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -736,8 +748,9 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -753,41 +766,44 @@
       <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -795,17 +811,17 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -814,8 +830,9 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -831,41 +848,44 @@
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -873,17 +893,17 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -892,8 +912,9 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -909,41 +930,44 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -951,17 +975,17 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -970,8 +994,9 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -987,41 +1012,44 @@
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1029,17 +1057,17 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1048,37 +1076,14 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B8 B6 B4 B2">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Employee,Student"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
-      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 S8 S6 S4 S2">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
   </dataValidations>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_01" sheetId="5" r:id="rId1"/>
+    <sheet sheetId="5" name="TC_01" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -31,6 +31,9 @@
     <t>ReferralText</t>
   </si>
   <si>
+    <t>MailPrefix</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Referral Source</t>
   </si>
   <si>
+    <t>prabha</t>
+  </si>
+  <si>
     <t>Prabha@123</t>
   </si>
   <si>
@@ -118,13 +124,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhaQwZg2980@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaWNTN</t>
-  </si>
-  <si>
-    <t>automationhgar</t>
+    <t>prabhagxtH3544@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabhavtql</t>
+  </si>
+  <si>
+    <t>automationwfxv</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -197,12 +203,6 @@
   </si>
   <si>
     <t>automationaqtf</t>
-  </si>
-  <si>
-    <t>MailPrefix</t>
-  </si>
-  <si>
-    <t>prabha</t>
   </si>
 </sst>
 </file>
@@ -211,34 +211,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,13 +250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,15 +579,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -609,7 +609,7 @@
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,104 +626,104 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -731,14 +731,14 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -750,62 +750,62 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -813,14 +813,14 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -832,62 +832,62 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -895,14 +895,14 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -914,62 +914,62 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -977,14 +977,14 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -996,62 +996,62 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1059,14 +1059,14 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1079,15 +1079,39 @@
       <c r="S11" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B8 B6 B4 B2">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 S8 S6 S4 S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,10 +293,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -301,8 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,7 +597,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -852,7 +865,7 @@
         <v>62</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="5"/>
@@ -1087,6 +1100,9 @@
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -124,13 +124,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhagxtH3544@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabhavtql</t>
-  </si>
-  <si>
-    <t>automationwfxv</t>
+    <t>prabhapXXo9065@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaelRr</t>
+  </si>
+  <si>
+    <t>automationzmnt</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -142,13 +142,13 @@
     <t>Writedata2</t>
   </si>
   <si>
-    <t>prabhauzWx3907@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhabxtY</t>
-  </si>
-  <si>
-    <t>automationtdhs</t>
+    <t>prabhaQFiN9239@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaniRA</t>
+  </si>
+  <si>
+    <t>automationmdwm</t>
   </si>
   <si>
     <t>Testdata3</t>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Field</t>
   </si>
@@ -139,6 +139,9 @@
     <t>Student</t>
   </si>
   <si>
+    <t>Union Representative</t>
+  </si>
+  <si>
     <t>Writedata2</t>
   </si>
   <si>
@@ -154,24 +157,30 @@
     <t>Testdata3</t>
   </si>
   <si>
+    <t>Flyer/Handout</t>
+  </si>
+  <si>
     <t>Cancer</t>
   </si>
   <si>
     <t>Writedata3</t>
   </si>
   <si>
-    <t>prabhajiEl1713@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhazOkC</t>
-  </si>
-  <si>
-    <t>automationdqup</t>
+    <t>prabhaHazN7279@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaMbwi</t>
+  </si>
+  <si>
+    <t>automationhtrk</t>
   </si>
   <si>
     <t>Testdata4</t>
   </si>
   <si>
+    <t>Lunch and learn</t>
+  </si>
+  <si>
     <t>Chronic Disease</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>Testdata5</t>
+  </si>
+  <si>
+    <t>radio Ad</t>
   </si>
   <si>
     <t>Elder Care</t>
@@ -584,7 +596,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -782,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>29</v>
@@ -803,9 +815,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -813,14 +825,14 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -834,7 +846,7 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
@@ -864,7 +876,7 @@
         <v>27</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>29</v>
@@ -882,12 +894,12 @@
         <v>33</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -895,14 +907,14 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -916,7 +928,7 @@
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -946,7 +958,7 @@
         <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>29</v>
@@ -964,12 +976,12 @@
         <v>33</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -977,14 +989,14 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -998,7 +1010,7 @@
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -1028,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>29</v>
@@ -1046,12 +1058,12 @@
         <v>33</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1059,14 +1071,14 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1079,7 +1091,7 @@
       <c r="S11" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
@@ -1094,6 +1106,21 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -178,7 +178,7 @@
     <t>Testdata4</t>
   </si>
   <si>
-    <t>Lunch and learn</t>
+    <t>Lunch and Learn</t>
   </si>
   <si>
     <t>Chronic Disease</t>
@@ -187,19 +187,19 @@
     <t>Writedata4</t>
   </si>
   <si>
-    <t>prabhaOGbu1814@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabhangas</t>
-  </si>
-  <si>
-    <t>automationzowz</t>
+    <t>prabhaDVyd3569@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabhaqbwa</t>
+  </si>
+  <si>
+    <t>automationjaue</t>
   </si>
   <si>
     <t>Testdata5</t>
   </si>
   <si>
-    <t>radio Ad</t>
+    <t>Radio Ad</t>
   </si>
   <si>
     <t>Elder Care</t>
@@ -596,7 +596,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -1108,19 +1108,19 @@
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8">
-      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/ Co-worker,radio Ad,Online,Lunch and learn,Occupational health,Insurance,other"</formula1>
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -187,13 +187,13 @@
     <t>Writedata4</t>
   </si>
   <si>
-    <t>prabhaDVyd3569@mailinator.com</t>
-  </si>
-  <si>
-    <t>Prabhaqbwa</t>
-  </si>
-  <si>
-    <t>automationjaue</t>
+    <t>prabhaDTAv8023@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaLXFf</t>
+  </si>
+  <si>
+    <t>automationehyw</t>
   </si>
   <si>
     <t>Testdata5</t>
@@ -208,13 +208,13 @@
     <t>Writedata5</t>
   </si>
   <si>
-    <t>prabhaIAwv2275@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaCvob</t>
-  </si>
-  <si>
-    <t>automationaqtf</t>
+    <t>prabhaeIzi4810@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabhaxhsg</t>
+  </si>
+  <si>
+    <t>automationevyw</t>
   </si>
 </sst>
 </file>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="5" name="TC_01" state="visible" r:id="rId4"/>
+    <sheet name="TC_01" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="85">
   <si>
     <t>Field</t>
   </si>
@@ -215,6 +215,60 @@
   </si>
   <si>
     <t>automationevyw</t>
+  </si>
+  <si>
+    <t>Testdata6</t>
+  </si>
+  <si>
+    <t>Writedata6</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Testdata7</t>
+  </si>
+  <si>
+    <t>Writedata7</t>
+  </si>
+  <si>
+    <t>Friend/Co-Worker</t>
+  </si>
+  <si>
+    <t>Testdata8</t>
+  </si>
+  <si>
+    <t>Writedata8</t>
+  </si>
+  <si>
+    <t>Occupational Health</t>
+  </si>
+  <si>
+    <t>Testdata9</t>
+  </si>
+  <si>
+    <t>Writedata9</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Testdata10</t>
+  </si>
+  <si>
+    <t>Writedata10</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Testdata11</t>
+  </si>
+  <si>
+    <t>Writedata11</t>
+  </si>
+  <si>
+    <t>Benefits Book</t>
   </si>
 </sst>
 </file>
@@ -223,34 +277,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -262,13 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,17 +645,17 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -612,7 +666,7 @@
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
@@ -621,7 +675,7 @@
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -733,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -762,7 +816,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -815,7 +869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -844,7 +898,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -897,7 +951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -926,7 +980,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -979,7 +1033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1008,7 +1062,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
@@ -1061,7 +1115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1090,9 +1144,501 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B12 B14 B16 B18 B20 B22">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -1107,7 +1653,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10 M12 M14 M16 M18 M20 M22">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
@@ -1122,7 +1668,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 S12 S14 S16 S18 S20 S22">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
@@ -1139,6 +1685,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_01" sheetId="5" r:id="rId1"/>
+    <sheet sheetId="5" name="TC_01" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -145,13 +145,13 @@
     <t>Writedata2</t>
   </si>
   <si>
-    <t>prabhaQFiN9239@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaniRA</t>
-  </si>
-  <si>
-    <t>automationmdwm</t>
+    <t>prabhaabIe9003@mailinator.com</t>
+  </si>
+  <si>
+    <t>Prabhaoodr</t>
+  </si>
+  <si>
+    <t>automationhner</t>
   </si>
   <si>
     <t>Testdata3</t>
@@ -220,55 +220,55 @@
     <t>Testdata6</t>
   </si>
   <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>Writedata6</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>Testdata7</t>
   </si>
   <si>
+    <t>Friend/Co-Worker</t>
+  </si>
+  <si>
     <t>Writedata7</t>
   </si>
   <si>
-    <t>Friend/Co-Worker</t>
-  </si>
-  <si>
     <t>Testdata8</t>
   </si>
   <si>
+    <t>Occupational Health</t>
+  </si>
+  <si>
     <t>Writedata8</t>
   </si>
   <si>
-    <t>Occupational Health</t>
-  </si>
-  <si>
     <t>Testdata9</t>
   </si>
   <si>
+    <t>Insurance</t>
+  </si>
+  <si>
     <t>Writedata9</t>
   </si>
   <si>
-    <t>Insurance</t>
-  </si>
-  <si>
     <t>Testdata10</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>Writedata10</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Testdata11</t>
   </si>
   <si>
+    <t>Benefits Book</t>
+  </si>
+  <si>
     <t>Writedata11</t>
-  </si>
-  <si>
-    <t>Benefits Book</t>
   </si>
 </sst>
 </file>
@@ -277,34 +277,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -316,13 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,15 +645,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -675,7 +675,7 @@
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -951,7 +951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>29</v>
@@ -1197,9 +1197,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1226,7 +1226,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>29</v>
@@ -1279,9 +1279,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1308,7 +1308,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>29</v>
@@ -1361,9 +1361,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1390,7 +1390,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>27</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>29</v>
@@ -1443,9 +1443,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1472,7 +1472,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>29</v>
@@ -1525,9 +1525,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1554,7 +1554,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>82</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>29</v>
@@ -1607,9 +1607,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1637,13 +1637,31 @@
       <c r="S23" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B12 B14 B16 B18 B20 B22">
+  <dataValidations count="33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>"Employee,Student"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
@@ -1653,12 +1671,30 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10 M12 M14 M16 M18 M20 M22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M22">
+      <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
@@ -1668,12 +1704,30 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8">
       <formula1>"Benefits Book,Human Resources,Union Representative,Flyer/Handout,Friend/Co-Worker,Radio Ad,Online,Lunch and Learn,Occupational Health,Insurance,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 S12 S14 S16 S18 S20 S22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S18">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S22">
+      <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
@@ -1685,6 +1739,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -124,13 +124,13 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhapXXo9065@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaelRr</t>
-  </si>
-  <si>
-    <t>automationzmnt</t>
+    <t>prabhatpvU4871@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaHHan</t>
+  </si>
+  <si>
+    <t>automationcizv</t>
   </si>
   <si>
     <t>Testdata2</t>
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -304,6 +304,14 @@
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="10"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -354,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,6 +373,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,7 +661,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -960,7 +971,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="5"/>
@@ -1738,6 +1749,9 @@
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>

--- a/dataFiles/Signup-Positive.xlsx
+++ b/dataFiles/Signup-Positive.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="5" name="TC_01" state="visible" r:id="rId4"/>
+    <sheet name="TC_01" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -124,9 +124,6 @@
     <t>Writedata1</t>
   </si>
   <si>
-    <t>prabhatpvU4871@mailinator.com</t>
-  </si>
-  <si>
     <t>PrabhaHHan</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>Writedata11</t>
+  </si>
+  <si>
+    <t>prabhajkgd9762@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -277,42 +277,42 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -324,13 +324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -377,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,15 +659,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -686,7 +689,7 @@
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -798,7 +801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -807,15 +810,15 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
+      <c r="G3" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -827,12 +830,12 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -859,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>29</v>
@@ -880,9 +883,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -890,14 +893,14 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -909,9 +912,9 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
@@ -941,7 +944,7 @@
         <v>27</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>29</v>
@@ -959,12 +962,12 @@
         <v>33</v>
       </c>
       <c r="S6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -972,14 +975,14 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -991,9 +994,9 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -1023,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>29</v>
@@ -1041,12 +1044,12 @@
         <v>33</v>
       </c>
       <c r="S8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1054,14 +1057,14 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1073,9 +1076,9 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
@@ -1105,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>29</v>
@@ -1123,12 +1126,12 @@
         <v>33</v>
       </c>
       <c r="S10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1136,14 +1139,14 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1155,9 +1158,9 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1187,7 +1190,7 @@
         <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>29</v>
@@ -1205,12 +1208,12 @@
         <v>33</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1218,14 +1221,14 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1237,9 +1240,9 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>20</v>
@@ -1269,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>29</v>
@@ -1287,12 +1290,12 @@
         <v>33</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1300,14 +1303,14 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1319,9 +1322,9 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -1351,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>29</v>
@@ -1369,12 +1372,12 @@
         <v>33</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1382,14 +1385,14 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1401,9 +1404,9 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
@@ -1433,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>29</v>
@@ -1451,12 +1454,12 @@
         <v>33</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1464,14 +1467,14 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1483,9 +1486,9 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -1515,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>29</v>
@@ -1533,12 +1536,12 @@
         <v>33</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1546,14 +1549,14 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1565,9 +1568,9 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -1597,7 +1600,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>29</v>
@@ -1615,12 +1618,12 @@
         <v>33</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="45" customHeight="1" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1628,14 +1631,14 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1753,6 +1756,6 @@
     <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>